--- a/biology/Botanique/Memecylon/Memecylon.xlsx
+++ b/biology/Botanique/Memecylon/Memecylon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Memecylon est un genre végétal de la famille des Melastomataceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (21 septembre 2017)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (21 septembre 2017) :
 Memecylon aberrans H. Perrier
 Memecylon accedens R.D.Stone, Ghogue &amp; Cheek
 Memecylon acrocarpum Bakh. fil.
@@ -856,13 +870,13 @@
 Memecylon xiphophyllum R.D.Stone
 Memecylon zambesiense A.Fern. &amp; R.Fern.
 Memecylon zenkeri Gilg
-Selon GRIN            (21 septembre 2017)[3] :
+Selon GRIN            (21 septembre 2017) :
 Memecylon edule Roxb.
 Memecylon floribundum Blume
 Memecylon nudum Blume
 Memecylon spathandra Blume
 Memecylon umbellatum Burm. f.
-Selon NCBI  (21 septembre 2017)[4] :
+Selon NCBI  (21 septembre 2017) :
 Memecylon afzelii
 Memecylon albescens
 Memecylon amshoffiae
@@ -959,7 +973,7 @@
 Memecylon wightii
 Memecylon xiphophyllum
 Memecylon zenkeri
-Selon The Plant List            (21 septembre 2017)[5] :
+Selon The Plant List            (21 septembre 2017) :
 Memecylon aberrans H. Perrier
 Memecylon aequidianum Jacq.-Fél.
 Memecylon afzelii G. Don
@@ -1066,7 +1080,7 @@
 Memecylon virescens Hook. f.
 Memecylon viride Hutch. &amp; Dalziel
 Memecylon zenkeri Gilg
-Selon Tropicos                                           (21 septembre 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 septembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 Memecylon aberrans H. Perrier
 Memecylon acrogenum R.D. Stone
 Memecylon acutifolium De Wild.
